--- a/download_data/angsd_project_data.xlsx
+++ b/download_data/angsd_project_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelawheeler/Desktop/Analysis of next gen seq data/angsd-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC55444-D66E-C34C-A197-BB3C399CA989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5708D-D623-D04D-891A-5C414748C115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="500" windowWidth="24540" windowHeight="16260" xr2:uid="{89A5C844-E69F-2E4F-9425-81F5EEC659AB}"/>
+    <workbookView xWindow="2520" yWindow="500" windowWidth="24540" windowHeight="16260" xr2:uid="{89A5C844-E69F-2E4F-9425-81F5EEC659AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3529118</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>ftp://ftp.sra.ebi.ac.uk/vol1/fastq/SRR836/003/SRR8367783/SRR8367783_1.fastq.gz ftp://ftp.sra.ebi.ac.uk/vol1/fastq/SRR836/003/SRR8367783/SRR8367783_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.sra.ebi.ac.uk/vol1/fastq/SRR836/003/SRR8367773/SRR8367773_1.fastq.gz ftp://ftp.sra.ebi.ac.uk/vol1/fastq/SRR836/003/SRR8367773/SRR8367773_2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0119FAB-A3AC-5441-893C-90336CDFE263}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,7 +672,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>

--- a/download_data/angsd_project_data.xlsx
+++ b/download_data/angsd_project_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelawheeler/Desktop/Analysis of next gen seq data/angsd-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelawheeler/Desktop/Analysis of next gen seq data/angsd-project/download_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5708D-D623-D04D-891A-5C414748C115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FB00B-0B56-2D4C-A0F2-07F9E09506C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="500" windowWidth="24540" windowHeight="16260" xr2:uid="{89A5C844-E69F-2E4F-9425-81F5EEC659AB}"/>
+    <workbookView xWindow="4600" yWindow="500" windowWidth="24540" windowHeight="16260" xr2:uid="{89A5C844-E69F-2E4F-9425-81F5EEC659AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0119FAB-A3AC-5441-893C-90336CDFE263}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/download_data/angsd_project_data.xlsx
+++ b/download_data/angsd_project_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelawheeler/Desktop/Analysis of next gen seq data/angsd-project/download_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FB00B-0B56-2D4C-A0F2-07F9E09506C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639D79D-FBBA-2D40-8D9B-8AEB823D9CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="500" windowWidth="24540" windowHeight="16260" xr2:uid="{89A5C844-E69F-2E4F-9425-81F5EEC659AB}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="24540" windowHeight="16260" xr2:uid="{89A5C844-E69F-2E4F-9425-81F5EEC659AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0119FAB-A3AC-5441-893C-90336CDFE263}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
